--- a/Proyectos/2015/12/P1363 - AECCON, XML, Daniela Atrip_MO/Cierre/Encuesta_satisfacción.xlsx
+++ b/Proyectos/2015/12/P1363 - AECCON, XML, Daniela Atrip_MO/Cierre/Encuesta_satisfacción.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Inf. Gral." sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Encuesta de Satisfacción al Cliente</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daniela Atrip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SE REALIZO ENCUESTA YA QUE LA PERSONA QUE RECIBIO EL SERVICIO YA NO LABORA EN LA EMPRESA Y NO HABÍA MANERA DE ENCUESTAR EL SERVICIO </t>
   </si>
 </sst>
 </file>
@@ -1291,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12623,7 +12626,9 @@
     </row>
     <row r="12" spans="1:1024" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="102"/>
+      <c r="B12" s="102" t="s">
+        <v>56</v>
+      </c>
       <c r="C12" s="102"/>
       <c r="D12" s="102"/>
       <c r="E12" s="102"/>
@@ -16771,7 +16776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
